--- a/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6413324785382772</v>
+        <v>0.6432826802133109</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6342472445165531</v>
+        <v>0.6360238700729649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7247243047509129</v>
+        <v>0.7229039257356935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5950499083138072</v>
+        <v>0.5926712754308725</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6475232834782687</v>
+        <v>0.6495646256328679</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6687379353968723</v>
+        <v>0.6694657114491099</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.780934068192182</v>
+        <v>0.7802783721924952</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6385848289465705</v>
+        <v>0.6406826462131751</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6546542926784902</v>
+        <v>0.6534352471047924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6611683443442274</v>
+        <v>0.6624906747888041</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7656869045017027</v>
+        <v>0.7649217475695885</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6286831039356898</v>
+        <v>0.6298599358659409</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6998989490089691</v>
+        <v>0.7011754845674367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6968528778165073</v>
+        <v>0.6962269726216902</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.785061816460038</v>
+        <v>0.7840358464504718</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.670427972731537</v>
+        <v>0.6717019704523995</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6989071595841374</v>
+        <v>0.7004014918304184</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7211559339423999</v>
+        <v>0.7210148831708763</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8366093913170072</v>
+        <v>0.8318923713726284</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6920531302959843</v>
+        <v>0.6915095080916269</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6900424824915811</v>
+        <v>0.6904428386420528</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7034009295970198</v>
+        <v>0.7021267806398855</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8074832761228539</v>
+        <v>0.8059114052229177</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6746469688439822</v>
+        <v>0.6757514480228604</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.7679414125642545</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5842804277915155</v>
+        <v>0.5842804277915153</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5851139436492696</v>
@@ -833,7 +833,7 @@
         <v>0.7599116509350042</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.577695056764904</v>
+        <v>0.5776950567649041</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5578053038351591</v>
+        <v>0.5574960227813599</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.580131802679451</v>
+        <v>0.5809608797138982</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7339590159384577</v>
+        <v>0.7303070851594197</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.548001319949276</v>
+        <v>0.5443189756486586</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5648897519096079</v>
+        <v>0.5648429983372333</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6486421048635366</v>
+        <v>0.6504890278398738</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7491190131651735</v>
+        <v>0.7476901116389852</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5651064437504666</v>
+        <v>0.5641768826762145</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5684738104269285</v>
+        <v>0.568670403550992</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6205691496053428</v>
+        <v>0.6211290211906298</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7448062098740678</v>
+        <v>0.7465900574402511</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5605171321472078</v>
+        <v>0.561057682244321</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6052126006512315</v>
+        <v>0.6035481296548405</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6260639522303081</v>
+        <v>0.6248348208099824</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.773001074796748</v>
+        <v>0.7711615700674083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5952255858913054</v>
+        <v>0.5940536319617772</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6130898217830881</v>
+        <v>0.6135557617654058</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6951868785520759</v>
+        <v>0.6950032880588299</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7885902167328926</v>
+        <v>0.7868764134291256</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6038295766367965</v>
+        <v>0.6045869414521747</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6029823216522976</v>
+        <v>0.6032135169031453</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6529382441292818</v>
+        <v>0.652844628816786</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7726831186110535</v>
+        <v>0.7737411245519284</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5928402664946749</v>
+        <v>0.5941023164163904</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6689096050425001</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5113841353664146</v>
+        <v>0.5113841353664145</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5171887675265394</v>
@@ -957,7 +957,7 @@
         <v>0.6491056451939663</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4794688975059424</v>
+        <v>0.4794688975059422</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5440089878569163</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5223326374098313</v>
+        <v>0.5240616794731833</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5305197723360717</v>
+        <v>0.5377374608891319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6239297596987843</v>
+        <v>0.625485068589516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4685244918278302</v>
+        <v>0.4698510717238226</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.469569074998731</v>
+        <v>0.466498953078511</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5197900850275651</v>
+        <v>0.5216567346732883</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6057974636425205</v>
+        <v>0.6092409222532023</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4480870374515379</v>
+        <v>0.4476227805973031</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5138076102070728</v>
+        <v>0.5125200856572727</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5415299270932782</v>
+        <v>0.5388410042896691</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6301254390740177</v>
+        <v>0.626497532271548</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4651990003575674</v>
+        <v>0.4680548962264109</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6090052841418241</v>
+        <v>0.6126313057849343</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6286498982914581</v>
+        <v>0.6330151196419646</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7094821399965998</v>
+        <v>0.7074585635966333</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.551374124795405</v>
+        <v>0.5516799805923746</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5630917195933962</v>
+        <v>0.5648594055622504</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6151809151989688</v>
+        <v>0.6178123542166977</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6894209656820467</v>
+        <v>0.6905567561865794</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5161576749494722</v>
+        <v>0.5125760599301291</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5764522573914475</v>
+        <v>0.575119993378017</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6121751838995173</v>
+        <v>0.6117008806756284</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6893930727352133</v>
+        <v>0.6874659709935186</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5206763123059339</v>
+        <v>0.5212214295620931</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.7504619524386171</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5756625794075548</v>
+        <v>0.5756625794075549</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5895959911590974</v>
+        <v>0.5892186302267477</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6012207335032571</v>
+        <v>0.6005860596969057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.724634585774445</v>
+        <v>0.7238783374359434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5512252703058318</v>
+        <v>0.5508076432605616</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5966757586258876</v>
+        <v>0.596819636909563</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6508883403660963</v>
+        <v>0.6523423259135507</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7461897721247968</v>
+        <v>0.745290581303654</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5675978606673808</v>
+        <v>0.5675669918388702</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5969502185631814</v>
+        <v>0.5974177738967191</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6320460922217143</v>
+        <v>0.6306132565834949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7392738813289358</v>
+        <v>0.7392943110190117</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5634706149361682</v>
+        <v>0.5625230736975921</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6239272982458312</v>
+        <v>0.6245011751578173</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.636725182672382</v>
+        <v>0.63510216244155</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7554344891757695</v>
+        <v>0.7547183983160586</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5875051521194014</v>
+        <v>0.5881645807998341</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.63018528379203</v>
+        <v>0.6302650562343636</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6831358120082863</v>
+        <v>0.6846722056572419</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7742516481786959</v>
+        <v>0.7756765047673244</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5959347345948866</v>
+        <v>0.5968842957936987</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.621649986495961</v>
+        <v>0.6216204807606376</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6567214876683514</v>
+        <v>0.6559470261720585</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7602286277052807</v>
+        <v>0.7606547810542889</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.587294668854665</v>
+        <v>0.5867796581999468</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>661677</v>
+        <v>663690</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>611399</v>
+        <v>613112</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>543263</v>
+        <v>541899</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>341024</v>
+        <v>339661</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>851566</v>
+        <v>854251</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>885091</v>
+        <v>886055</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>775081</v>
+        <v>774430</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>512959</v>
+        <v>514644</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1536366</v>
+        <v>1533505</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1512423</v>
+        <v>1515448</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1333918</v>
+        <v>1332585</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>865304</v>
+        <v>866924</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>722102</v>
+        <v>723419</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>671749</v>
+        <v>671146</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>588493</v>
+        <v>587724</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>384224</v>
+        <v>384954</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>919142</v>
+        <v>921107</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>954468</v>
+        <v>954281</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>830339</v>
+        <v>825657</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>555908</v>
+        <v>555472</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1619416</v>
+        <v>1620355</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1609030</v>
+        <v>1606116</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1406732</v>
+        <v>1403994</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>928568</v>
+        <v>930088</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>943657</v>
+        <v>943133</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1135251</v>
+        <v>1136874</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1517540</v>
+        <v>1509989</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1213578</v>
+        <v>1205423</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>895745</v>
+        <v>895670</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1134541</v>
+        <v>1137772</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1481329</v>
+        <v>1478503</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1220151</v>
+        <v>1218144</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1863133</v>
+        <v>1863777</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2299821</v>
+        <v>2301895</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3012768</v>
+        <v>3019984</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2451537</v>
+        <v>2453901</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1023857</v>
+        <v>1021041</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1225135</v>
+        <v>1222730</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1598263</v>
+        <v>1594460</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1318159</v>
+        <v>1315563</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>972175</v>
+        <v>972914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1215953</v>
+        <v>1215632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1559380</v>
+        <v>1555991</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1303760</v>
+        <v>1305396</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1976232</v>
+        <v>1976989</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2419780</v>
+        <v>2419433</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3125531</v>
+        <v>3129811</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2592909</v>
+        <v>2598429</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>286537</v>
+        <v>287486</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>253533</v>
+        <v>256982</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>340085</v>
+        <v>340933</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>330351</v>
+        <v>331286</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>223708</v>
+        <v>222246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>236651</v>
+        <v>237501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>329267</v>
+        <v>331139</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>327468</v>
+        <v>327129</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>526645</v>
+        <v>525325</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>505344</v>
+        <v>502835</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>685953</v>
+        <v>682003</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>667980</v>
+        <v>672081</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>334083</v>
+        <v>336072</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>300429</v>
+        <v>302515</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>386717</v>
+        <v>385614</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>388767</v>
+        <v>388982</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>268264</v>
+        <v>269106</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>280081</v>
+        <v>281279</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>374719</v>
+        <v>375336</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>377215</v>
+        <v>374598</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>590854</v>
+        <v>589489</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>571268</v>
+        <v>570826</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>750471</v>
+        <v>748373</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>747640</v>
+        <v>748423</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1929173</v>
+        <v>1927939</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2043403</v>
+        <v>2041245</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2436433</v>
+        <v>2433890</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1925288</v>
+        <v>1923829</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2015106</v>
+        <v>2015592</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2296275</v>
+        <v>2301404</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2621708</v>
+        <v>2618549</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2096276</v>
+        <v>2096162</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3969270</v>
+        <v>3972379</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4377972</v>
+        <v>4368047</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5083064</v>
+        <v>5083204</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4049090</v>
+        <v>4042281</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2041506</v>
+        <v>2043384</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2164074</v>
+        <v>2158557</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2539991</v>
+        <v>2537584</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2052004</v>
+        <v>2054307</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2128276</v>
+        <v>2128545</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2410041</v>
+        <v>2415461</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2720302</v>
+        <v>2725308</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2200931</v>
+        <v>2204438</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4133505</v>
+        <v>4133309</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4548890</v>
+        <v>4543525</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5227144</v>
+        <v>5230074</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>4220290</v>
+        <v>4216589</v>
       </c>
     </row>
     <row r="20">
